--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2959998.081207262</v>
+        <v>-2962680.961779357</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9798238.339971961</v>
+        <v>9798238.33997196</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>369.763605516418</v>
+        <v>216.9875170187568</v>
       </c>
       <c r="C11" t="n">
         <v>352.3026556239449</v>
@@ -1376,7 +1376,7 @@
         <v>341.7128054736203</v>
       </c>
       <c r="E11" t="n">
-        <v>186.2945888403842</v>
+        <v>368.9601339251991</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>29.88945658715645</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>96.97573745566407</v>
+        <v>96.97573745566396</v>
       </c>
       <c r="T11" t="n">
-        <v>191.0933871891871</v>
+        <v>191.0933871891865</v>
       </c>
       <c r="U11" t="n">
-        <v>238.0275976635191</v>
+        <v>238.0275976635196</v>
       </c>
       <c r="V11" t="n">
-        <v>314.7820223230723</v>
+        <v>314.7820223230722</v>
       </c>
       <c r="W11" t="n">
-        <v>336.2707325703504</v>
+        <v>336.2707325703503</v>
       </c>
       <c r="X11" t="n">
         <v>356.7608645314064</v>
       </c>
       <c r="Y11" t="n">
-        <v>373.267702508991</v>
+        <v>373.2677025089909</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>135.0172718683079</v>
       </c>
       <c r="H12" t="n">
-        <v>89.7688120462513</v>
+        <v>89.76881204625131</v>
       </c>
       <c r="I12" t="n">
-        <v>9.30441546112236</v>
+        <v>9.304415461122403</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>154.2765849515652</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>110.4423995285805</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>153.0704972997937</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.9174772554028</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>76.63300724114772</v>
+        <v>76.63300724114774</v>
       </c>
       <c r="S13" t="n">
         <v>177.0588945031659</v>
       </c>
       <c r="T13" t="n">
-        <v>206.6424843861904</v>
+        <v>206.6424843861903</v>
       </c>
       <c r="U13" t="n">
-        <v>273.2424161597045</v>
+        <v>273.2424161597044</v>
       </c>
       <c r="V13" t="n">
         <v>239.1674071767654</v>
       </c>
       <c r="W13" t="n">
-        <v>273.5527621895284</v>
+        <v>273.5527621895283</v>
       </c>
       <c r="X13" t="n">
         <v>212.7394192419745</v>
       </c>
       <c r="Y13" t="n">
-        <v>185.3454271299823</v>
+        <v>205.6144172050321</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>369.763605516418</v>
+        <v>369.7636055164179</v>
       </c>
       <c r="C14" t="n">
         <v>352.3026556239449</v>
       </c>
       <c r="D14" t="n">
-        <v>341.7128054736203</v>
+        <v>316.5274613652667</v>
       </c>
       <c r="E14" t="n">
-        <v>227.8454905060407</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>281.6375282402578</v>
       </c>
       <c r="I14" t="n">
-        <v>28.60669362586333</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>96.21752564111335</v>
+        <v>96.21752564111317</v>
       </c>
       <c r="T14" t="n">
         <v>190.9477339925575</v>
@@ -1664,16 +1664,16 @@
         <v>238.0249358118394</v>
       </c>
       <c r="V14" t="n">
-        <v>314.7820223230723</v>
+        <v>314.7820223230722</v>
       </c>
       <c r="W14" t="n">
-        <v>336.2707325703504</v>
+        <v>336.2707325703503</v>
       </c>
       <c r="X14" t="n">
         <v>356.7608645314064</v>
       </c>
       <c r="Y14" t="n">
-        <v>373.267702508991</v>
+        <v>373.2677025089909</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247721</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>166.8617440348747</v>
+        <v>166.8617440348746</v>
       </c>
       <c r="C16" t="n">
-        <v>113.3548641784383</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>133.4637264995065</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>75.96191652298471</v>
+        <v>75.96191652298467</v>
       </c>
       <c r="S16" t="n">
-        <v>176.7987891843793</v>
+        <v>176.7987891843792</v>
       </c>
       <c r="T16" t="n">
-        <v>206.5787131291066</v>
+        <v>206.5787131291065</v>
       </c>
       <c r="U16" t="n">
-        <v>273.2416020585503</v>
+        <v>273.2416020585502</v>
       </c>
       <c r="V16" t="n">
         <v>239.1674071767654</v>
       </c>
       <c r="W16" t="n">
-        <v>273.5527621895284</v>
+        <v>273.5527621895283</v>
       </c>
       <c r="X16" t="n">
         <v>212.7394192419745</v>
       </c>
       <c r="Y16" t="n">
-        <v>205.6144172050322</v>
+        <v>185.5055548839651</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>322.7884688978254</v>
+        <v>322.7884688978253</v>
       </c>
       <c r="C17" t="n">
-        <v>305.3275190053524</v>
+        <v>305.3275190053523</v>
       </c>
       <c r="D17" t="n">
-        <v>294.7376688550278</v>
+        <v>294.7376688550277</v>
       </c>
       <c r="E17" t="n">
-        <v>321.9849973066066</v>
+        <v>321.9849973066065</v>
       </c>
       <c r="F17" t="n">
-        <v>346.9306729760563</v>
+        <v>346.9306729760561</v>
       </c>
       <c r="G17" t="n">
-        <v>350.9763528877983</v>
+        <v>350.9763528877982</v>
       </c>
       <c r="H17" t="n">
-        <v>234.6623916216653</v>
+        <v>234.6623916216652</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>49.24238902252061</v>
+        <v>49.24238902252055</v>
       </c>
       <c r="T17" t="n">
-        <v>143.972597373965</v>
+        <v>143.9725973739648</v>
       </c>
       <c r="U17" t="n">
         <v>191.0497991932471</v>
       </c>
       <c r="V17" t="n">
-        <v>267.8068857044797</v>
+        <v>267.8068857044796</v>
       </c>
       <c r="W17" t="n">
-        <v>289.2955959517578</v>
+        <v>289.2955959517577</v>
       </c>
       <c r="X17" t="n">
-        <v>309.7857279128139</v>
+        <v>309.7857279128137</v>
       </c>
       <c r="Y17" t="n">
-        <v>326.2925658903984</v>
+        <v>326.2925658903983</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247737</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>119.8866074162821</v>
+        <v>119.886607416282</v>
       </c>
       <c r="C19" t="n">
-        <v>107.3014483329727</v>
+        <v>107.3014483329725</v>
       </c>
       <c r="D19" t="n">
-        <v>88.67010025255721</v>
+        <v>88.67010025255706</v>
       </c>
       <c r="E19" t="n">
-        <v>86.48858988091402</v>
+        <v>86.48858988091388</v>
       </c>
       <c r="F19" t="n">
-        <v>85.47567525727609</v>
+        <v>85.47567525727595</v>
       </c>
       <c r="G19" t="n">
-        <v>106.0804354933731</v>
+        <v>106.0804354933729</v>
       </c>
       <c r="H19" t="n">
-        <v>84.80964214866563</v>
+        <v>84.80964214866549</v>
       </c>
       <c r="I19" t="n">
-        <v>36.40704764418295</v>
+        <v>36.4070476441828</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>28.98677990439218</v>
+        <v>28.98677990439204</v>
       </c>
       <c r="S19" t="n">
-        <v>129.8236525657867</v>
+        <v>129.8236525657866</v>
       </c>
       <c r="T19" t="n">
-        <v>159.603576510514</v>
+        <v>159.6035765105139</v>
       </c>
       <c r="U19" t="n">
-        <v>226.2664654399577</v>
+        <v>226.2664654399576</v>
       </c>
       <c r="V19" t="n">
-        <v>192.1922705581729</v>
+        <v>192.1922705581727</v>
       </c>
       <c r="W19" t="n">
-        <v>226.5776255709359</v>
+        <v>226.5776255709357</v>
       </c>
       <c r="X19" t="n">
-        <v>165.764282623382</v>
+        <v>165.7642826233819</v>
       </c>
       <c r="Y19" t="n">
-        <v>158.6392805864396</v>
+        <v>158.6392805864395</v>
       </c>
     </row>
     <row r="20">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>322.7884688978254</v>
+        <v>322.7884688978253</v>
       </c>
       <c r="C20" t="n">
-        <v>305.3275190053524</v>
+        <v>305.3275190053523</v>
       </c>
       <c r="D20" t="n">
-        <v>294.7376688550278</v>
+        <v>294.7376688550277</v>
       </c>
       <c r="E20" t="n">
-        <v>321.9849973066066</v>
+        <v>321.9849973066065</v>
       </c>
       <c r="F20" t="n">
-        <v>346.9306729760565</v>
+        <v>346.9306729760562</v>
       </c>
       <c r="G20" t="n">
-        <v>350.9763528877983</v>
+        <v>350.9763528877982</v>
       </c>
       <c r="H20" t="n">
         <v>234.6623916216653</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>49.24238902252068</v>
+        <v>49.24238902252062</v>
       </c>
       <c r="T20" t="n">
-        <v>143.972597373965</v>
+        <v>143.9725973739649</v>
       </c>
       <c r="U20" t="n">
         <v>191.0497991932471</v>
@@ -2144,7 +2144,7 @@
         <v>289.2955959517578</v>
       </c>
       <c r="X20" t="n">
-        <v>309.7857279128139</v>
+        <v>309.7857279128138</v>
       </c>
       <c r="Y20" t="n">
         <v>326.2925658903984</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247737</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,25 +2239,25 @@
         <v>119.8866074162821</v>
       </c>
       <c r="C22" t="n">
-        <v>107.3014483329727</v>
+        <v>107.3014483329726</v>
       </c>
       <c r="D22" t="n">
-        <v>88.67010025255721</v>
+        <v>88.67010025255715</v>
       </c>
       <c r="E22" t="n">
-        <v>86.48858988091402</v>
+        <v>86.48858988091396</v>
       </c>
       <c r="F22" t="n">
-        <v>85.47567525727609</v>
+        <v>85.47567525727604</v>
       </c>
       <c r="G22" t="n">
-        <v>106.0804354933731</v>
+        <v>106.080435493373</v>
       </c>
       <c r="H22" t="n">
-        <v>84.80964214866563</v>
+        <v>84.80964214866557</v>
       </c>
       <c r="I22" t="n">
-        <v>36.40704764418295</v>
+        <v>36.40704764418289</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>28.98677990439218</v>
+        <v>28.98677990439212</v>
       </c>
       <c r="S22" t="n">
         <v>129.8236525657867</v>
@@ -2293,16 +2293,16 @@
         <v>159.603576510514</v>
       </c>
       <c r="U22" t="n">
-        <v>226.2664654399577</v>
+        <v>226.2664654399576</v>
       </c>
       <c r="V22" t="n">
-        <v>192.1922705581729</v>
+        <v>192.1922705581728</v>
       </c>
       <c r="W22" t="n">
-        <v>226.5776255709359</v>
+        <v>226.5776255709358</v>
       </c>
       <c r="X22" t="n">
-        <v>165.764282623382</v>
+        <v>165.7642826233819</v>
       </c>
       <c r="Y22" t="n">
         <v>158.6392805864396</v>
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>322.7884688978254</v>
+        <v>322.7884688978253</v>
       </c>
       <c r="C23" t="n">
-        <v>305.3275190053524</v>
+        <v>305.3275190053523</v>
       </c>
       <c r="D23" t="n">
-        <v>294.7376688550278</v>
+        <v>294.7376688550277</v>
       </c>
       <c r="E23" t="n">
-        <v>321.9849973066066</v>
+        <v>321.9849973066065</v>
       </c>
       <c r="F23" t="n">
-        <v>346.9306729760563</v>
+        <v>346.9306729760562</v>
       </c>
       <c r="G23" t="n">
-        <v>350.9763528877983</v>
+        <v>350.9763528877982</v>
       </c>
       <c r="H23" t="n">
         <v>234.6623916216653</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>49.24238902252061</v>
+        <v>49.24238902252062</v>
       </c>
       <c r="T23" t="n">
-        <v>143.972597373965</v>
+        <v>143.9725973739649</v>
       </c>
       <c r="U23" t="n">
-        <v>191.0497991932462</v>
+        <v>191.049799193248</v>
       </c>
       <c r="V23" t="n">
         <v>267.8068857044797</v>
@@ -2381,7 +2381,7 @@
         <v>289.2955959517578</v>
       </c>
       <c r="X23" t="n">
-        <v>309.7857279128139</v>
+        <v>309.7857279128138</v>
       </c>
       <c r="Y23" t="n">
         <v>326.2925658903984</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247737</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2476,25 +2476,25 @@
         <v>119.8866074162821</v>
       </c>
       <c r="C25" t="n">
-        <v>107.3014483329727</v>
+        <v>107.3014483329726</v>
       </c>
       <c r="D25" t="n">
-        <v>88.67010025255721</v>
+        <v>88.67010025255715</v>
       </c>
       <c r="E25" t="n">
-        <v>86.48858988091402</v>
+        <v>86.48858988091396</v>
       </c>
       <c r="F25" t="n">
-        <v>85.47567525727609</v>
+        <v>85.47567525727604</v>
       </c>
       <c r="G25" t="n">
-        <v>106.0804354933731</v>
+        <v>106.080435493373</v>
       </c>
       <c r="H25" t="n">
-        <v>84.80964214866563</v>
+        <v>84.80964214866557</v>
       </c>
       <c r="I25" t="n">
-        <v>36.40704764418293</v>
+        <v>36.40704764418289</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>28.98677990439217</v>
+        <v>28.98677990439212</v>
       </c>
       <c r="S25" t="n">
         <v>129.8236525657867</v>
@@ -2530,16 +2530,16 @@
         <v>159.603576510514</v>
       </c>
       <c r="U25" t="n">
-        <v>226.2664654399577</v>
+        <v>226.2664654399576</v>
       </c>
       <c r="V25" t="n">
-        <v>192.1922705581729</v>
+        <v>192.1922705581728</v>
       </c>
       <c r="W25" t="n">
-        <v>226.5776255709359</v>
+        <v>226.5776255709358</v>
       </c>
       <c r="X25" t="n">
-        <v>165.764282623382</v>
+        <v>165.7642826233819</v>
       </c>
       <c r="Y25" t="n">
         <v>158.6392805864396</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210278</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.8172186824775</v>
+        <v>18.81721868247752</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
         <v>120.2716844800353</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124535</v>
+        <v>49.37728379124527</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403097</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V29" t="n">
         <v>280.7771218515423</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247751</v>
+        <v>18.81721868247752</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
         <v>120.2716844800353</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433796</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.050671640436</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="32">
@@ -3083,7 +3083,7 @@
         <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403097</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V32" t="n">
         <v>280.7771218515423</v>
@@ -3205,7 +3205,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124565</v>
+        <v>49.37728379124548</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3266,22 +3266,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C35" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E35" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H35" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T35" t="n">
-        <v>156.9428335210278</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U35" t="n">
-        <v>204.0200353403097</v>
+        <v>204.0200353403088</v>
       </c>
       <c r="V35" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y35" t="n">
         <v>339.262802037461</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247752</v>
+        <v>18.81721868247754</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797654</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433862</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572815</v>
       </c>
       <c r="I37" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124547</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145472</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3478,7 +3478,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V37" t="n">
         <v>205.1625067052354</v>
@@ -3487,7 +3487,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y37" t="n">
         <v>171.6095167335022</v>
@@ -3503,22 +3503,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C38" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E38" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958321</v>
       </c>
       <c r="T38" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U38" t="n">
         <v>204.0200353403093</v>
@@ -3563,10 +3563,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y38" t="n">
         <v>339.262802037461</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247752</v>
+        <v>18.81721868247754</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797654</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433862</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572815</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124547</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145472</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3715,7 +3715,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V40" t="n">
         <v>205.1625067052354</v>
@@ -3724,7 +3724,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y40" t="n">
         <v>171.6095167335022</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
         <v>359.9009091231189</v>
@@ -3755,7 +3755,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958333</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T41" t="n">
-        <v>156.9428335210278</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
-        <v>204.0200353403088</v>
+        <v>204.0200353403097</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
         <v>302.2658320988205</v>
@@ -3806,7 +3806,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824775</v>
+        <v>18.81721868247751</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797667</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433874</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572828</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.3772837912456</v>
+        <v>49.3772837912454</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145483</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C44" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E44" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F44" t="n">
         <v>359.9009091231189</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4034,7 +4034,7 @@
         <v>204.0200353403093</v>
       </c>
       <c r="V44" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W44" t="n">
         <v>302.2658320988205</v>
@@ -4043,7 +4043,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824775</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4153,7 +4153,7 @@
         <v>97.77987829572825</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128494</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575768</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U46" t="n">
         <v>239.23670158702</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>985.0941450425468</v>
+        <v>1139.413426353312</v>
       </c>
       <c r="C11" t="n">
-        <v>629.2328767355316</v>
+        <v>783.552158046297</v>
       </c>
       <c r="D11" t="n">
-        <v>284.0684267621778</v>
+        <v>438.3877080729431</v>
       </c>
       <c r="E11" t="n">
-        <v>95.89207439815257</v>
+        <v>65.70070410809548</v>
       </c>
       <c r="F11" t="n">
-        <v>95.89207439815257</v>
+        <v>65.70070410809548</v>
       </c>
       <c r="G11" t="n">
-        <v>95.89207439815257</v>
+        <v>65.70070410809548</v>
       </c>
       <c r="H11" t="n">
-        <v>95.89207439815257</v>
+        <v>65.70070410809548</v>
       </c>
       <c r="I11" t="n">
-        <v>65.70070410809555</v>
+        <v>65.70070410809548</v>
       </c>
       <c r="J11" t="n">
-        <v>251.7840585582776</v>
+        <v>251.7840585582767</v>
       </c>
       <c r="K11" t="n">
-        <v>581.4132879916629</v>
+        <v>581.4132879916624</v>
       </c>
       <c r="L11" t="n">
         <v>1027.249256772031</v>
       </c>
       <c r="M11" t="n">
-        <v>1554.997112878781</v>
+        <v>1554.99711287878</v>
       </c>
       <c r="N11" t="n">
-        <v>2095.898289419568</v>
+        <v>2095.898289419566</v>
       </c>
       <c r="O11" t="n">
-        <v>2593.320671028025</v>
+        <v>2593.320671028022</v>
       </c>
       <c r="P11" t="n">
-        <v>2983.35816459836</v>
+        <v>2983.358164598356</v>
       </c>
       <c r="Q11" t="n">
-        <v>3228.08733216303</v>
+        <v>3228.087332163027</v>
       </c>
       <c r="R11" t="n">
-        <v>3285.035205404778</v>
+        <v>3285.035205404774</v>
       </c>
       <c r="S11" t="n">
-        <v>3187.079915045521</v>
+        <v>3187.079915045517</v>
       </c>
       <c r="T11" t="n">
-        <v>2994.0562916221</v>
+        <v>2994.056291622097</v>
       </c>
       <c r="U11" t="n">
-        <v>2753.624374790262</v>
+        <v>2753.624374790259</v>
       </c>
       <c r="V11" t="n">
-        <v>2435.662736080088</v>
+        <v>2435.662736080085</v>
       </c>
       <c r="W11" t="n">
-        <v>2095.99532944337</v>
+        <v>2095.995329443367</v>
       </c>
       <c r="X11" t="n">
-        <v>1735.630819815687</v>
+        <v>1735.630819815684</v>
       </c>
       <c r="Y11" t="n">
-        <v>1358.592736473272</v>
+        <v>1358.592736473269</v>
       </c>
     </row>
     <row r="12">
@@ -5109,37 +5109,37 @@
         <v>302.1557539825213</v>
       </c>
       <c r="G12" t="n">
-        <v>165.7746712872609</v>
+        <v>165.7746712872608</v>
       </c>
       <c r="H12" t="n">
-        <v>75.0991035637747</v>
+        <v>75.09910356377468</v>
       </c>
       <c r="I12" t="n">
-        <v>65.70070410809555</v>
+        <v>65.70070410809548</v>
       </c>
       <c r="J12" t="n">
-        <v>157.7128282630322</v>
+        <v>157.712828263032</v>
       </c>
       <c r="K12" t="n">
-        <v>393.131028644254</v>
+        <v>393.1310286442536</v>
       </c>
       <c r="L12" t="n">
-        <v>756.0023926223539</v>
+        <v>756.0023926223532</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.813027020554</v>
+        <v>1198.813027020553</v>
       </c>
       <c r="N12" t="n">
-        <v>1667.752186202857</v>
+        <v>1667.752186202855</v>
       </c>
       <c r="O12" t="n">
-        <v>2074.520106954894</v>
+        <v>2074.520106954892</v>
       </c>
       <c r="P12" t="n">
-        <v>2381.654158408488</v>
+        <v>2381.654158408486</v>
       </c>
       <c r="Q12" t="n">
-        <v>2537.045941678334</v>
+        <v>2537.045941678331</v>
       </c>
       <c r="R12" t="n">
         <v>2555.088223384202</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>353.5673450729408</v>
+        <v>333.0936177244042</v>
       </c>
       <c r="C13" t="n">
-        <v>353.5673450729408</v>
+        <v>177.2586834298939</v>
       </c>
       <c r="D13" t="n">
-        <v>353.5673450729408</v>
+        <v>65.70070410809548</v>
       </c>
       <c r="E13" t="n">
-        <v>353.5673450729408</v>
+        <v>65.70070410809548</v>
       </c>
       <c r="F13" t="n">
-        <v>353.5673450729408</v>
+        <v>65.70070410809548</v>
       </c>
       <c r="G13" t="n">
-        <v>198.950681133755</v>
+        <v>65.70070410809548</v>
       </c>
       <c r="H13" t="n">
-        <v>65.70070410809555</v>
+        <v>65.70070410809548</v>
       </c>
       <c r="I13" t="n">
-        <v>65.70070410809555</v>
+        <v>65.70070410809548</v>
       </c>
       <c r="J13" t="n">
-        <v>122.6192116689689</v>
+        <v>122.6192116689687</v>
       </c>
       <c r="K13" t="n">
-        <v>337.7302332994457</v>
+        <v>337.7302332994454</v>
       </c>
       <c r="L13" t="n">
-        <v>664.9337868378627</v>
+        <v>664.9337868378624</v>
       </c>
       <c r="M13" t="n">
-        <v>1019.61517109952</v>
+        <v>1019.615171099519</v>
       </c>
       <c r="N13" t="n">
-        <v>1371.602960410578</v>
+        <v>1371.602960410577</v>
       </c>
       <c r="O13" t="n">
-        <v>1681.684581733418</v>
+        <v>1681.684581733417</v>
       </c>
       <c r="P13" t="n">
-        <v>1925.34553366288</v>
+        <v>1925.345533662879</v>
       </c>
       <c r="Q13" t="n">
-        <v>2014.559080455223</v>
+        <v>2014.559080455221</v>
       </c>
       <c r="R13" t="n">
-        <v>1937.152002433861</v>
+        <v>1937.15200243386</v>
       </c>
       <c r="S13" t="n">
-        <v>1758.304634248845</v>
+        <v>1758.304634248844</v>
       </c>
       <c r="T13" t="n">
-        <v>1549.574852040572</v>
+        <v>1549.574852040571</v>
       </c>
       <c r="U13" t="n">
-        <v>1273.572411475214</v>
+        <v>1273.572411475213</v>
       </c>
       <c r="V13" t="n">
-        <v>1031.989171902724</v>
+        <v>1031.989171902723</v>
       </c>
       <c r="W13" t="n">
-        <v>755.6732504991598</v>
+        <v>755.6732504991585</v>
       </c>
       <c r="X13" t="n">
-        <v>540.7849482345391</v>
+        <v>540.7849482345378</v>
       </c>
       <c r="Y13" t="n">
-        <v>353.5673450729408</v>
+        <v>333.0936177244042</v>
       </c>
     </row>
     <row r="14">
@@ -5258,25 +5258,25 @@
         <v>670.7191766397841</v>
       </c>
       <c r="D14" t="n">
-        <v>325.55472666643</v>
+        <v>350.9944681900196</v>
       </c>
       <c r="E14" t="n">
-        <v>95.40776655931809</v>
+        <v>350.9944681900196</v>
       </c>
       <c r="F14" t="n">
-        <v>95.40776655931809</v>
+        <v>350.9944681900196</v>
       </c>
       <c r="G14" t="n">
-        <v>95.40776655931809</v>
+        <v>350.9944681900196</v>
       </c>
       <c r="H14" t="n">
-        <v>95.40776655931809</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810562</v>
@@ -5285,7 +5285,7 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060172</v>
@@ -5297,7 +5297,7 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5306,22 +5306,22 @@
         <v>3228.416401769663</v>
       </c>
       <c r="T14" t="n">
-        <v>3035.539902787281</v>
+        <v>3035.539902787282</v>
       </c>
       <c r="U14" t="n">
-        <v>2795.110674694514</v>
+        <v>2795.110674694515</v>
       </c>
       <c r="V14" t="n">
-        <v>2477.14903598434</v>
+        <v>2477.149035984341</v>
       </c>
       <c r="W14" t="n">
-        <v>2137.481629347622</v>
+        <v>2137.481629347623</v>
       </c>
       <c r="X14" t="n">
-        <v>1777.117119719939</v>
+        <v>1777.11711971994</v>
       </c>
       <c r="Y14" t="n">
-        <v>1400.079036377524</v>
+        <v>1400.079036377525</v>
       </c>
     </row>
     <row r="15">
@@ -5352,10 +5352,10 @@
         <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>181.0119792386868</v>
+        <v>201.3239613811799</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218342</v>
+        <v>201.3239613811799</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218342</v>
+        <v>201.3239613811799</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>124.475282664711</v>
       </c>
       <c r="K16" t="n">
-        <v>341.3029993991793</v>
+        <v>341.3029993991797</v>
       </c>
       <c r="L16" t="n">
-        <v>670.7033316332675</v>
+        <v>670.7033316332679</v>
       </c>
       <c r="M16" t="n">
-        <v>1027.700911018408</v>
+        <v>1027.700911018409</v>
       </c>
       <c r="N16" t="n">
-        <v>1381.949821509865</v>
+        <v>1381.949821509866</v>
       </c>
       <c r="O16" t="n">
         <v>1694.119954215871</v>
       </c>
       <c r="P16" t="n">
-        <v>1939.567988435122</v>
+        <v>1939.567988435123</v>
       </c>
       <c r="Q16" t="n">
-        <v>2030.018818373228</v>
+        <v>2030.018818373229</v>
       </c>
       <c r="R16" t="n">
-        <v>1953.289609764153</v>
+        <v>1953.289609764154</v>
       </c>
       <c r="S16" t="n">
-        <v>1774.704974224376</v>
+        <v>1774.704974224377</v>
       </c>
       <c r="T16" t="n">
         <v>1566.039607427299</v>
       </c>
       <c r="U16" t="n">
-        <v>1290.037989186339</v>
+        <v>1290.03798918634</v>
       </c>
       <c r="V16" t="n">
-        <v>1048.454749613848</v>
+        <v>1048.454749613849</v>
       </c>
       <c r="W16" t="n">
-        <v>772.1388282102841</v>
+        <v>772.1388282102853</v>
       </c>
       <c r="X16" t="n">
-        <v>557.2505259456634</v>
+        <v>557.2505259456645</v>
       </c>
       <c r="Y16" t="n">
-        <v>349.5591954355299</v>
+        <v>369.871177578023</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1950.756836993864</v>
+        <v>1950.756836993863</v>
       </c>
       <c r="C17" t="n">
-        <v>1642.345201634922</v>
+        <v>1642.345201634921</v>
       </c>
       <c r="D17" t="n">
-        <v>1344.630384609642</v>
+        <v>1344.630384609641</v>
       </c>
       <c r="E17" t="n">
-        <v>1019.393013592867</v>
+        <v>1019.393013592866</v>
       </c>
       <c r="F17" t="n">
-        <v>668.9579903847298</v>
+        <v>668.9579903847289</v>
       </c>
       <c r="G17" t="n">
-        <v>314.4364218111959</v>
+        <v>314.4364218111958</v>
       </c>
       <c r="H17" t="n">
-        <v>77.403703001433</v>
+        <v>77.40370300143297</v>
       </c>
       <c r="I17" t="n">
-        <v>77.403703001433</v>
+        <v>77.40370300143297</v>
       </c>
       <c r="J17" t="n">
         <v>266.2828339604584</v>
@@ -5519,46 +5519,46 @@
         <v>600.102207650305</v>
       </c>
       <c r="L17" t="n">
-        <v>1051.136420898714</v>
+        <v>1309.573066364383</v>
       </c>
       <c r="M17" t="n">
-        <v>1584.668325570638</v>
+        <v>1843.104971036308</v>
       </c>
       <c r="N17" t="n">
-        <v>2131.447142629421</v>
+        <v>2389.88378809509</v>
       </c>
       <c r="O17" t="n">
-        <v>2634.419613508758</v>
+        <v>2892.856258974427</v>
       </c>
       <c r="P17" t="n">
-        <v>3287.630625331607</v>
+        <v>3287.630625331605</v>
       </c>
       <c r="Q17" t="n">
-        <v>3746.108827840595</v>
+        <v>3746.108827840593</v>
       </c>
       <c r="R17" t="n">
-        <v>3870.18515007165</v>
+        <v>3870.185150071648</v>
       </c>
       <c r="S17" t="n">
-        <v>3820.445363180215</v>
+        <v>3820.445363180213</v>
       </c>
       <c r="T17" t="n">
-        <v>3675.018497145907</v>
+        <v>3675.018497145906</v>
       </c>
       <c r="U17" t="n">
-        <v>3482.038902001213</v>
+        <v>3482.038902001212</v>
       </c>
       <c r="V17" t="n">
-        <v>3211.526896239112</v>
+        <v>3211.526896239111</v>
       </c>
       <c r="W17" t="n">
-        <v>2919.309122550468</v>
+        <v>2919.309122550466</v>
       </c>
       <c r="X17" t="n">
-        <v>2606.394245870858</v>
+        <v>2606.394245870857</v>
       </c>
       <c r="Y17" t="n">
-        <v>2276.805795476516</v>
+        <v>2276.805795476515</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5589,7 @@
         <v>96.41099459989499</v>
       </c>
       <c r="I18" t="n">
-        <v>77.403703001433</v>
+        <v>77.40370300143297</v>
       </c>
       <c r="J18" t="n">
         <v>171.0809724920503</v>
@@ -5598,7 +5598,7 @@
         <v>409.3451714723975</v>
       </c>
       <c r="L18" t="n">
-        <v>776.0433317850629</v>
+        <v>776.0433317850628</v>
       </c>
       <c r="M18" t="n">
         <v>1223.319657007379</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>678.649095940768</v>
+        <v>678.6490959407669</v>
       </c>
       <c r="C19" t="n">
-        <v>570.263794594331</v>
+        <v>570.26379459433</v>
       </c>
       <c r="D19" t="n">
-        <v>480.6980367634651</v>
+        <v>480.6980367634643</v>
       </c>
       <c r="E19" t="n">
-        <v>393.3358247625418</v>
+        <v>393.3358247625412</v>
       </c>
       <c r="F19" t="n">
-        <v>306.9967588461013</v>
+        <v>306.9967588461009</v>
       </c>
       <c r="G19" t="n">
-        <v>199.8448038022902</v>
+        <v>199.8448038022898</v>
       </c>
       <c r="H19" t="n">
-        <v>114.1784986016178</v>
+        <v>114.1784986016176</v>
       </c>
       <c r="I19" t="n">
-        <v>77.403703001433</v>
+        <v>77.40370300143297</v>
       </c>
       <c r="J19" t="n">
-        <v>122.5263354483686</v>
+        <v>181.8722544863673</v>
       </c>
       <c r="K19" t="n">
-        <v>326.513518397245</v>
+        <v>385.8594374352436</v>
       </c>
       <c r="L19" t="n">
-        <v>643.0733168457411</v>
+        <v>702.4192358837397</v>
       </c>
       <c r="M19" t="n">
-        <v>1030.961628254201</v>
+        <v>1046.576281483289</v>
       </c>
       <c r="N19" t="n">
-        <v>1372.370004960065</v>
+        <v>1387.984658189153</v>
       </c>
       <c r="O19" t="n">
-        <v>1731.045522918477</v>
+        <v>1746.660176147565</v>
       </c>
       <c r="P19" t="n">
-        <v>2022.998942390135</v>
+        <v>2022.998942390133</v>
       </c>
       <c r="Q19" t="n">
-        <v>2100.60923854265</v>
+        <v>2100.609238542648</v>
       </c>
       <c r="R19" t="n">
-        <v>2071.329662881648</v>
+        <v>2071.329662881646</v>
       </c>
       <c r="S19" t="n">
-        <v>1940.194660289944</v>
+        <v>1940.194660289942</v>
       </c>
       <c r="T19" t="n">
-        <v>1778.97892644094</v>
+        <v>1778.978926440938</v>
       </c>
       <c r="U19" t="n">
-        <v>1550.426941148053</v>
+        <v>1550.426941148051</v>
       </c>
       <c r="V19" t="n">
-        <v>1356.293334523636</v>
+        <v>1356.293334523634</v>
       </c>
       <c r="W19" t="n">
-        <v>1127.427046068146</v>
+        <v>1127.427046068144</v>
       </c>
       <c r="X19" t="n">
-        <v>959.9883767515981</v>
+        <v>959.9883767515967</v>
       </c>
       <c r="Y19" t="n">
-        <v>799.7466791895379</v>
+        <v>799.7466791895366</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1950.756836993864</v>
+        <v>1950.756836993863</v>
       </c>
       <c r="C20" t="n">
-        <v>1642.345201634922</v>
+        <v>1642.345201634921</v>
       </c>
       <c r="D20" t="n">
-        <v>1344.630384609642</v>
+        <v>1344.630384609641</v>
       </c>
       <c r="E20" t="n">
         <v>1019.393013592867</v>
       </c>
       <c r="F20" t="n">
-        <v>668.9579903847296</v>
+        <v>668.9579903847289</v>
       </c>
       <c r="G20" t="n">
-        <v>314.4364218111959</v>
+        <v>314.4364218111958</v>
       </c>
       <c r="H20" t="n">
-        <v>77.403703001433</v>
+        <v>77.40370300143297</v>
       </c>
       <c r="I20" t="n">
-        <v>77.403703001433</v>
+        <v>77.40370300143297</v>
       </c>
       <c r="J20" t="n">
         <v>266.2828339604584</v>
@@ -5756,46 +5756,46 @@
         <v>600.102207650305</v>
       </c>
       <c r="L20" t="n">
-        <v>1051.136420898714</v>
+        <v>1201.184186027921</v>
       </c>
       <c r="M20" t="n">
-        <v>1584.668325570638</v>
+        <v>1734.716090699846</v>
       </c>
       <c r="N20" t="n">
-        <v>2131.447142629421</v>
+        <v>2281.494907758628</v>
       </c>
       <c r="O20" t="n">
-        <v>2634.419613508758</v>
+        <v>2784.467378637965</v>
       </c>
       <c r="P20" t="n">
-        <v>3287.630625331607</v>
+        <v>3497.822466084911</v>
       </c>
       <c r="Q20" t="n">
-        <v>3746.108827840595</v>
+        <v>3746.108827840593</v>
       </c>
       <c r="R20" t="n">
-        <v>3870.18515007165</v>
+        <v>3870.185150071648</v>
       </c>
       <c r="S20" t="n">
-        <v>3820.445363180215</v>
+        <v>3820.445363180214</v>
       </c>
       <c r="T20" t="n">
-        <v>3675.018497145907</v>
+        <v>3675.018497145906</v>
       </c>
       <c r="U20" t="n">
-        <v>3482.038902001213</v>
+        <v>3482.038902001212</v>
       </c>
       <c r="V20" t="n">
-        <v>3211.526896239112</v>
+        <v>3211.526896239111</v>
       </c>
       <c r="W20" t="n">
-        <v>2919.309122550468</v>
+        <v>2919.309122550466</v>
       </c>
       <c r="X20" t="n">
-        <v>2606.394245870858</v>
+        <v>2606.394245870856</v>
       </c>
       <c r="Y20" t="n">
-        <v>2276.805795476516</v>
+        <v>2276.805795476515</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>96.41099459989499</v>
       </c>
       <c r="I21" t="n">
-        <v>77.403703001433</v>
+        <v>77.40370300143297</v>
       </c>
       <c r="J21" t="n">
         <v>171.0809724920503</v>
@@ -5835,7 +5835,7 @@
         <v>409.3451714723975</v>
       </c>
       <c r="L21" t="n">
-        <v>776.0433317850629</v>
+        <v>776.0433317850628</v>
       </c>
       <c r="M21" t="n">
         <v>1223.319657007379</v>
@@ -5884,61 +5884,61 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>678.649095940768</v>
+        <v>678.6490959407677</v>
       </c>
       <c r="C22" t="n">
-        <v>570.263794594331</v>
+        <v>570.2637945943306</v>
       </c>
       <c r="D22" t="n">
-        <v>480.6980367634651</v>
+        <v>480.6980367634648</v>
       </c>
       <c r="E22" t="n">
-        <v>393.3358247625418</v>
+        <v>393.3358247625416</v>
       </c>
       <c r="F22" t="n">
-        <v>306.9967588461013</v>
+        <v>306.9967588461012</v>
       </c>
       <c r="G22" t="n">
-        <v>199.8448038022902</v>
+        <v>199.84480380229</v>
       </c>
       <c r="H22" t="n">
-        <v>114.1784986016178</v>
+        <v>114.1784986016177</v>
       </c>
       <c r="I22" t="n">
-        <v>77.403703001433</v>
+        <v>77.40370300143297</v>
       </c>
       <c r="J22" t="n">
-        <v>166.257601257279</v>
+        <v>122.5263354483685</v>
       </c>
       <c r="K22" t="n">
-        <v>370.2447842061554</v>
+        <v>326.5135183972449</v>
       </c>
       <c r="L22" t="n">
-        <v>686.8045826546515</v>
+        <v>643.073316845741</v>
       </c>
       <c r="M22" t="n">
-        <v>1030.961628254201</v>
+        <v>1046.576281483289</v>
       </c>
       <c r="N22" t="n">
-        <v>1431.715923998064</v>
+        <v>1447.330577227152</v>
       </c>
       <c r="O22" t="n">
-        <v>1731.045522918477</v>
+        <v>1790.391441956475</v>
       </c>
       <c r="P22" t="n">
-        <v>2022.998942390135</v>
+        <v>2022.998942390134</v>
       </c>
       <c r="Q22" t="n">
-        <v>2100.60923854265</v>
+        <v>2100.609238542649</v>
       </c>
       <c r="R22" t="n">
-        <v>2071.329662881648</v>
+        <v>2071.329662881647</v>
       </c>
       <c r="S22" t="n">
-        <v>1940.194660289944</v>
+        <v>1940.194660289943</v>
       </c>
       <c r="T22" t="n">
-        <v>1778.97892644094</v>
+        <v>1778.978926440939</v>
       </c>
       <c r="U22" t="n">
         <v>1550.426941148053</v>
@@ -5947,13 +5947,13 @@
         <v>1356.293334523636</v>
       </c>
       <c r="W22" t="n">
-        <v>1127.427046068146</v>
+        <v>1127.427046068145</v>
       </c>
       <c r="X22" t="n">
-        <v>959.9883767515981</v>
+        <v>959.9883767515976</v>
       </c>
       <c r="Y22" t="n">
-        <v>799.7466791895379</v>
+        <v>799.7466791895374</v>
       </c>
     </row>
     <row r="23">
@@ -5969,70 +5969,70 @@
         <v>1642.345201634922</v>
       </c>
       <c r="D23" t="n">
-        <v>1344.630384609642</v>
+        <v>1344.630384609641</v>
       </c>
       <c r="E23" t="n">
         <v>1019.393013592867</v>
       </c>
       <c r="F23" t="n">
-        <v>668.9579903847296</v>
+        <v>668.9579903847294</v>
       </c>
       <c r="G23" t="n">
         <v>314.4364218111959</v>
       </c>
       <c r="H23" t="n">
-        <v>77.40370300143299</v>
+        <v>77.403703001433</v>
       </c>
       <c r="I23" t="n">
-        <v>77.40370300143299</v>
+        <v>77.403703001433</v>
       </c>
       <c r="J23" t="n">
-        <v>266.2828339604586</v>
+        <v>266.2828339604584</v>
       </c>
       <c r="K23" t="n">
-        <v>600.1022076503052</v>
+        <v>600.102207650305</v>
       </c>
       <c r="L23" t="n">
         <v>1051.136420898714</v>
       </c>
       <c r="M23" t="n">
-        <v>1584.668325570639</v>
+        <v>2009.007245541447</v>
       </c>
       <c r="N23" t="n">
-        <v>2131.447142629421</v>
+        <v>2555.786062600229</v>
       </c>
       <c r="O23" t="n">
-        <v>2892.856258974428</v>
+        <v>3058.758533479566</v>
       </c>
       <c r="P23" t="n">
-        <v>3287.630625331606</v>
+        <v>3453.532899836744</v>
       </c>
       <c r="Q23" t="n">
-        <v>3746.108827840594</v>
+        <v>3811.168083514847</v>
       </c>
       <c r="R23" t="n">
-        <v>3870.185150071649</v>
+        <v>3870.18515007165</v>
       </c>
       <c r="S23" t="n">
-        <v>3820.445363180214</v>
+        <v>3820.445363180215</v>
       </c>
       <c r="T23" t="n">
-        <v>3675.018497145906</v>
+        <v>3675.018497145907</v>
       </c>
       <c r="U23" t="n">
-        <v>3482.038902001213</v>
+        <v>3482.038902001212</v>
       </c>
       <c r="V23" t="n">
-        <v>3211.526896239112</v>
+        <v>3211.526896239111</v>
       </c>
       <c r="W23" t="n">
-        <v>2919.309122550468</v>
+        <v>2919.309122550467</v>
       </c>
       <c r="X23" t="n">
-        <v>2606.394245870858</v>
+        <v>2606.394245870857</v>
       </c>
       <c r="Y23" t="n">
-        <v>2276.805795476516</v>
+        <v>2276.805795476515</v>
       </c>
     </row>
     <row r="24">
@@ -6042,40 +6042,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>952.4354410503579</v>
+        <v>952.4354410503581</v>
       </c>
       <c r="C24" t="n">
-        <v>777.9824117692309</v>
+        <v>777.9824117692311</v>
       </c>
       <c r="D24" t="n">
-        <v>629.0480021079798</v>
+        <v>629.0480021079799</v>
       </c>
       <c r="E24" t="n">
-        <v>469.8105471025242</v>
+        <v>469.8105471025244</v>
       </c>
       <c r="F24" t="n">
-        <v>323.2759891294093</v>
+        <v>323.2759891294094</v>
       </c>
       <c r="G24" t="n">
-        <v>186.912888962028</v>
+        <v>186.9128889620275</v>
       </c>
       <c r="H24" t="n">
-        <v>96.4109945998954</v>
+        <v>96.41099459989499</v>
       </c>
       <c r="I24" t="n">
-        <v>77.40370300143299</v>
+        <v>77.403703001433</v>
       </c>
       <c r="J24" t="n">
         <v>171.0809724920503</v>
       </c>
       <c r="K24" t="n">
-        <v>409.3451714723976</v>
+        <v>409.3451714723975</v>
       </c>
       <c r="L24" t="n">
-        <v>776.0433317850626</v>
+        <v>776.0433317850629</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.319657007378</v>
+        <v>1223.319657007379</v>
       </c>
       <c r="N24" t="n">
         <v>1696.842700561833</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>678.649095940768</v>
+        <v>678.6490959407677</v>
       </c>
       <c r="C25" t="n">
-        <v>570.263794594331</v>
+        <v>570.2637945943306</v>
       </c>
       <c r="D25" t="n">
-        <v>480.6980367634651</v>
+        <v>480.6980367634648</v>
       </c>
       <c r="E25" t="n">
-        <v>393.3358247625418</v>
+        <v>393.3358247625416</v>
       </c>
       <c r="F25" t="n">
-        <v>306.9967588461013</v>
+        <v>306.9967588461012</v>
       </c>
       <c r="G25" t="n">
-        <v>199.8448038022901</v>
+        <v>199.84480380229</v>
       </c>
       <c r="H25" t="n">
-        <v>114.1784986016178</v>
+        <v>114.1784986016177</v>
       </c>
       <c r="I25" t="n">
-        <v>77.40370300143299</v>
+        <v>77.403703001433</v>
       </c>
       <c r="J25" t="n">
         <v>122.5263354483686</v>
@@ -6154,28 +6154,28 @@
         <v>643.0733168457411</v>
       </c>
       <c r="M25" t="n">
-        <v>987.2303624452902</v>
+        <v>1030.9616282542</v>
       </c>
       <c r="N25" t="n">
-        <v>1372.370004960065</v>
+        <v>1372.370004960064</v>
       </c>
       <c r="O25" t="n">
-        <v>1731.045522918477</v>
+        <v>1671.699603880478</v>
       </c>
       <c r="P25" t="n">
-        <v>2022.998942390135</v>
+        <v>1963.653023352136</v>
       </c>
       <c r="Q25" t="n">
-        <v>2100.60923854265</v>
+        <v>2100.609238542649</v>
       </c>
       <c r="R25" t="n">
-        <v>2071.329662881648</v>
+        <v>2071.329662881647</v>
       </c>
       <c r="S25" t="n">
-        <v>1940.194660289944</v>
+        <v>1940.194660289943</v>
       </c>
       <c r="T25" t="n">
-        <v>1778.97892644094</v>
+        <v>1778.978926440939</v>
       </c>
       <c r="U25" t="n">
         <v>1550.426941148053</v>
@@ -6184,13 +6184,13 @@
         <v>1356.293334523636</v>
       </c>
       <c r="W25" t="n">
-        <v>1127.427046068146</v>
+        <v>1127.427046068145</v>
       </c>
       <c r="X25" t="n">
-        <v>959.9883767515981</v>
+        <v>959.9883767515976</v>
       </c>
       <c r="Y25" t="n">
-        <v>799.7466791895379</v>
+        <v>799.7466791895374</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
         <v>1711.594658697161</v>
@@ -6212,16 +6212,16 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
         <v>270.0260478557146</v>
@@ -6236,37 +6236,37 @@
         <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2135.190356524677</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O26" t="n">
-        <v>2761.436232647469</v>
+        <v>3071.136282571878</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
         <v>2372.257749805548</v>
@@ -6300,7 +6300,7 @@
         <v>100.1542084951513</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
@@ -6358,67 +6358,67 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D28" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913841</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302703</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960311</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
         <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="29">
@@ -6449,49 +6449,49 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1543.189242259776</v>
       </c>
       <c r="M29" t="n">
-        <v>1588.411539465894</v>
+        <v>2076.7211469317</v>
       </c>
       <c r="N29" t="n">
-        <v>2135.190356524677</v>
+        <v>2623.499963990483</v>
       </c>
       <c r="O29" t="n">
-        <v>2761.436232647469</v>
+        <v>3126.47243486982</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094415</v>
+        <v>3521.246801226998</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
         <v>3629.895850863831</v>
@@ -6537,7 +6537,7 @@
         <v>100.1542084951513</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873065</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899659</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257034</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913836</v>
+        <v>449.4840331913846</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415475</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.299882151966</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
         <v>1400.778593038484</v>
@@ -6686,7 +6686,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
@@ -6704,22 +6704,22 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1076.411957014865</v>
       </c>
       <c r="M32" t="n">
-        <v>1588.411539465894</v>
+        <v>1609.94386168679</v>
       </c>
       <c r="N32" t="n">
-        <v>2135.190356524677</v>
+        <v>2156.722678745572</v>
       </c>
       <c r="O32" t="n">
-        <v>2761.436232647469</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
@@ -6731,7 +6731,7 @@
         <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
         <v>3346.282596468334</v>
@@ -6841,28 +6841,28 @@
         <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
         <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
         <v>81.14691689668916</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960316</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973146</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982174</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6877,7 +6877,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
         <v>2271.591606277852</v>
@@ -6917,22 +6917,22 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E35" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G35" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="J35" t="n">
         <v>270.0260478557146</v>
@@ -6941,34 +6941,34 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L35" t="n">
-        <v>1054.87963479397</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M35" t="n">
-        <v>1588.411539465894</v>
+        <v>2240.457506552421</v>
       </c>
       <c r="N35" t="n">
-        <v>2135.190356524677</v>
+        <v>2787.236323611204</v>
       </c>
       <c r="O35" t="n">
-        <v>2761.436232647468</v>
+        <v>3290.208794490541</v>
       </c>
       <c r="P35" t="n">
-        <v>3474.791320094414</v>
+        <v>3684.983160847719</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603401</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834456</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V35" t="n">
         <v>3346.282596468333</v>
@@ -6977,10 +6977,10 @@
         <v>3040.963574146292</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>100.1542084951513</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="J36" t="n">
         <v>174.8241863873065</v>
@@ -7069,58 +7069,58 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502697997</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913843</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L37" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N37" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O37" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q37" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T37" t="n">
         <v>1953.038372570351</v>
@@ -7129,7 +7129,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V37" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W37" t="n">
         <v>1262.182746297367</v>
@@ -7138,7 +7138,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519666</v>
+        <v>908.299882151966</v>
       </c>
     </row>
     <row r="38">
@@ -7163,13 +7163,13 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="J38" t="n">
         <v>270.0260478557146</v>
@@ -7187,37 +7187,37 @@
         <v>2135.190356524677</v>
       </c>
       <c r="O38" t="n">
-        <v>2761.436232647468</v>
+        <v>3015.155006854131</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094414</v>
+        <v>3474.791320094413</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603401</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834456</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V38" t="n">
         <v>3346.282596468333</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>100.1542084951513</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="J39" t="n">
         <v>174.8241863873065</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697997</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913842</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="J40" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M40" t="n">
         <v>1176.995117350173</v>
@@ -7348,16 +7348,16 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T40" t="n">
         <v>1953.038372570351</v>
@@ -7366,7 +7366,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V40" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W40" t="n">
         <v>1262.182746297367</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519666</v>
+        <v>908.299882151966</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J41" t="n">
         <v>270.0260478557146</v>
@@ -7415,25 +7415,25 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L41" t="n">
-        <v>1054.87963479397</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M41" t="n">
-        <v>1588.411539465894</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N41" t="n">
-        <v>2135.190356524677</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O41" t="n">
-        <v>2761.436232647469</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P41" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
         <v>3994.504809309627</v>
@@ -7442,19 +7442,19 @@
         <v>3835.976694641922</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>100.1542084951513</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J42" t="n">
         <v>174.8241863873065</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257043</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960323</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973153</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L43" t="n">
-        <v>786.332686498218</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350174</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N43" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V43" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519669</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C44" t="n">
         <v>1711.594658697162</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467798</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398487</v>
@@ -7646,25 +7646,25 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J44" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760677</v>
       </c>
       <c r="K44" t="n">
-        <v>603.8454215455611</v>
+        <v>810.8729904741859</v>
       </c>
       <c r="L44" t="n">
-        <v>1054.87963479397</v>
+        <v>1261.907203722595</v>
       </c>
       <c r="M44" t="n">
-        <v>1588.411539465894</v>
+        <v>2240.457506552424</v>
       </c>
       <c r="N44" t="n">
-        <v>2568.163811692541</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O44" t="n">
-        <v>3071.136282571878</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P44" t="n">
-        <v>3474.791320094415</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q44" t="n">
         <v>3933.269522603403</v>
@@ -7682,16 +7682,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W44" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C45" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D45" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E45" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F45" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G45" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572842</v>
       </c>
       <c r="H45" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I45" t="n">
         <v>81.14691689668918</v>
@@ -7728,16 +7728,16 @@
         <v>174.8241863873065</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L45" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O45" t="n">
         <v>2111.547193875144</v>
@@ -7770,7 +7770,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y45" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698003</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899667</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G46" t="n">
         <v>229.7905149643395</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I46" t="n">
         <v>81.14691689668918</v>
@@ -7810,7 +7810,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350173</v>
@@ -7825,7 +7825,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R46" t="n">
         <v>2271.591606277852</v>
@@ -7834,7 +7834,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U46" t="n">
         <v>1711.385138644069</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347424</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
   </sheetData>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>19.47276605080035</v>
+        <v>19.47276605080319</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>261.0471166319891</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>261.0471166319911</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>151.5633991204117</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9416,10 +9416,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>261.0471166319911</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9644,22 +9644,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>428.6251716876857</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>261.0471166319894</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>110.4533554771924</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9884,19 +9884,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>124.5185911550058</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>287.0017854473908</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10124,13 +10124,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>124.5185911550058</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>165.3902622431539</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>21.74982042514705</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>124.5185911550058</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10589,22 +10589,22 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>240.9710754359404</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>124.5185911550049</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10835,10 +10835,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>124.5185911550049</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>65.5171180637409</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11063,25 +11063,25 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>306.6874953089247</v>
       </c>
       <c r="O41" t="n">
-        <v>124.5185911550058</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>40.02214132148646</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>8.970374914504362</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>152.7760884976611</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>182.665545084815</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>393.9058095946488</v>
       </c>
       <c r="G11" t="n">
-        <v>397.9847626523942</v>
+        <v>397.9847626523941</v>
       </c>
       <c r="H11" t="n">
-        <v>281.9782868467644</v>
+        <v>281.9782868467648</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>29.88945658715652</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>166.8617440348747</v>
+        <v>166.8617440348746</v>
       </c>
       <c r="C13" t="n">
-        <v>154.2765849515652</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>135.6452368711497</v>
+        <v>25.20283734256921</v>
       </c>
       <c r="E13" t="n">
         <v>133.4637264995065</v>
@@ -23428,13 +23428,13 @@
         <v>132.4508118758686</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>153.0704972997937</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.9174772554028</v>
       </c>
       <c r="I13" t="n">
-        <v>83.83102536582507</v>
+        <v>83.83102536582506</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>20.26899007504986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>25.18534410835352</v>
       </c>
       <c r="E14" t="n">
-        <v>141.1146434191584</v>
+        <v>368.9601339251991</v>
       </c>
       <c r="F14" t="n">
         <v>393.9058095946488</v>
@@ -23510,10 +23510,10 @@
         <v>397.9514895063908</v>
       </c>
       <c r="H14" t="n">
-        <v>281.6375282402578</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>28.60669362586329</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>40.92172077312691</v>
+        <v>154.2765849515652</v>
       </c>
       <c r="D16" t="n">
         <v>135.6452368711497</v>
       </c>
       <c r="E16" t="n">
-        <v>133.4637264995065</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>132.4508118758686</v>
@@ -23668,10 +23668,10 @@
         <v>153.0555721119656</v>
       </c>
       <c r="H16" t="n">
-        <v>131.7847787672582</v>
+        <v>131.7847787672581</v>
       </c>
       <c r="I16" t="n">
-        <v>83.38218426277547</v>
+        <v>83.38218426277544</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>20.10886232106699</v>
       </c>
     </row>
     <row r="17">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1236040.791180165</v>
+        <v>1236040.791180164</v>
       </c>
     </row>
     <row r="6">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1124466.348246266</v>
+        <v>1124466.348246265</v>
       </c>
       <c r="F3" t="n">
-        <v>9448.40632792852</v>
+        <v>9448.406327929353</v>
       </c>
       <c r="G3" t="n">
-        <v>74895.36560528369</v>
+        <v>74895.36560528362</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>12242.36820513012</v>
+        <v>12242.36820513003</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487405</v>
+        <v>37580.10929487411</v>
       </c>
       <c r="M3" t="n">
-        <v>204660.978331923</v>
+        <v>204660.9783319227</v>
       </c>
       <c r="N3" t="n">
-        <v>2484.209828773368</v>
+        <v>2484.209828773647</v>
       </c>
       <c r="O3" t="n">
-        <v>32763.38999345608</v>
+        <v>32763.38999345594</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,19 +26424,19 @@
         <v>420147.7688895313</v>
       </c>
       <c r="E4" t="n">
-        <v>22700.80181096976</v>
+        <v>22700.80181096983</v>
       </c>
       <c r="F4" t="n">
-        <v>22267.47581159468</v>
+        <v>22267.47581159471</v>
       </c>
       <c r="G4" t="n">
-        <v>79653.36255971505</v>
+        <v>79653.3625597151</v>
       </c>
       <c r="H4" t="n">
-        <v>79653.36255971505</v>
+        <v>79653.36255971507</v>
       </c>
       <c r="I4" t="n">
-        <v>79653.36255971501</v>
+        <v>79653.3625597151</v>
       </c>
       <c r="J4" t="n">
         <v>76652.56781120101</v>
@@ -26445,19 +26445,19 @@
         <v>76652.56781120101</v>
       </c>
       <c r="L4" t="n">
-        <v>76652.56781120102</v>
+        <v>76652.56781120101</v>
       </c>
       <c r="M4" t="n">
-        <v>76652.56781120099</v>
+        <v>76652.56781120101</v>
       </c>
       <c r="N4" t="n">
+        <v>76652.56781120101</v>
+      </c>
+      <c r="O4" t="n">
+        <v>76652.56781120101</v>
+      </c>
+      <c r="P4" t="n">
         <v>76652.56781120098</v>
-      </c>
-      <c r="O4" t="n">
-        <v>76652.56781120098</v>
-      </c>
-      <c r="P4" t="n">
-        <v>76652.56781120101</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>74599.63002524441</v>
+        <v>74599.63002524435</v>
       </c>
       <c r="F5" t="n">
-        <v>75396.7353440407</v>
+        <v>75396.73534404072</v>
       </c>
       <c r="G5" t="n">
-        <v>87623.49389705884</v>
+        <v>87623.49389705883</v>
       </c>
       <c r="H5" t="n">
-        <v>87623.49389705884</v>
+        <v>87623.49389705883</v>
       </c>
       <c r="I5" t="n">
         <v>87623.49389705884</v>
@@ -26500,16 +26500,16 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480609</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480609</v>
       </c>
       <c r="O5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-453775.3688895312</v>
+        <v>-453779.7824673994</v>
       </c>
       <c r="C6" t="n">
-        <v>-453775.3688895312</v>
+        <v>-453779.7824673994</v>
       </c>
       <c r="D6" t="n">
-        <v>-453775.3688895312</v>
+        <v>-453779.7824673994</v>
       </c>
       <c r="E6" t="n">
-        <v>-1221766.78008248</v>
+        <v>-1222066.438316091</v>
       </c>
       <c r="F6" t="n">
-        <v>-107112.6174835639</v>
+        <v>-107402.9670101158</v>
       </c>
       <c r="G6" t="n">
-        <v>-242172.2220620576</v>
+        <v>-242172.2220620575</v>
       </c>
       <c r="H6" t="n">
-        <v>-167276.8564567739</v>
+        <v>-167276.8564567738</v>
       </c>
       <c r="I6" t="n">
         <v>-167276.8564567739</v>
       </c>
       <c r="J6" t="n">
-        <v>-178272.8776911373</v>
+        <v>-178272.8776911371</v>
       </c>
       <c r="K6" t="n">
         <v>-166030.5094860071</v>
@@ -26552,13 +26552,13 @@
         <v>-203610.6187808812</v>
       </c>
       <c r="M6" t="n">
-        <v>-370691.4878179301</v>
+        <v>-370691.4878179298</v>
       </c>
       <c r="N6" t="n">
-        <v>-168514.7193147805</v>
+        <v>-168514.7193147807</v>
       </c>
       <c r="O6" t="n">
-        <v>-198793.8994794632</v>
+        <v>-198793.8994794631</v>
       </c>
       <c r="P6" t="n">
         <v>-166030.5094860071</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="F2" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="G2" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565529</v>
       </c>
       <c r="H2" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="I2" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
+        <v>46.97513661859263</v>
+      </c>
+      <c r="N2" t="n">
+        <v>46.97513661859263</v>
+      </c>
+      <c r="O2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="N2" t="n">
-        <v>46.97513661859255</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.97513661859251</v>
-      </c>
       <c r="P2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1081.500005524972</v>
+        <v>1081.500005524971</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26756,7 +26756,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26796,25 +26796,25 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>821.2588013511944</v>
+        <v>821.2588013511935</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>967.5462875179126</v>
+        <v>967.5462875179121</v>
       </c>
       <c r="H4" t="n">
-        <v>967.5462875179126</v>
+        <v>967.5462875179121</v>
       </c>
       <c r="I4" t="n">
-        <v>967.5462875179123</v>
+        <v>967.5462875179124</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
         <v>1014.336461208615</v>
@@ -26914,16 +26914,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1081.500005524972</v>
+        <v>1081.500005524971</v>
       </c>
       <c r="F3" t="n">
-        <v>8.276695068326717</v>
+        <v>8.276695068327399</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>821.2588013511944</v>
+        <v>821.2588013511935</v>
       </c>
       <c r="F4" t="n">
-        <v>10.14265405109836</v>
+        <v>10.14265405109938</v>
       </c>
       <c r="G4" t="n">
-        <v>136.1448321156198</v>
+        <v>136.1448321156192</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>46.79017369070232</v>
+        <v>46.79017369070198</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>821.2588013511943</v>
+        <v>821.258801351193</v>
       </c>
       <c r="N4" t="n">
-        <v>10.14265405109836</v>
+        <v>10.1426540510995</v>
       </c>
       <c r="O4" t="n">
-        <v>136.14483211562</v>
+        <v>136.1448321156197</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>821.2588013511944</v>
+        <v>821.2588013511935</v>
       </c>
       <c r="N4" t="n">
-        <v>10.14265405109836</v>
+        <v>10.14265405109938</v>
       </c>
       <c r="O4" t="n">
-        <v>136.1448321156198</v>
+        <v>136.1448321156192</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="C11" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="D11" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="E11" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="F11" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="G11" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="H11" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="I11" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="T11" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="U11" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="V11" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="W11" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="X11" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="C13" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="D13" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="E13" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="F13" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="G13" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="H13" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="I13" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="J13" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="K13" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="L13" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="M13" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="N13" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="O13" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="P13" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="Q13" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="R13" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="S13" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="T13" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="U13" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="V13" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="W13" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="X13" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="C14" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="D14" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="E14" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="F14" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="G14" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="H14" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="I14" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="T14" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="U14" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="V14" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="W14" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="X14" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="Y14" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="C16" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="D16" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="E16" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="F16" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="G16" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="H16" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="I16" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="J16" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="K16" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="L16" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="M16" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="N16" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="O16" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="P16" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="Q16" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="R16" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="S16" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="T16" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="U16" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="V16" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="W16" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="X16" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.97023614706262</v>
+        <v>12.97023614706266</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565529</v>
       </c>
       <c r="C17" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565529</v>
       </c>
       <c r="D17" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565529</v>
       </c>
       <c r="E17" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565529</v>
       </c>
       <c r="F17" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565529</v>
       </c>
       <c r="G17" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565529</v>
       </c>
       <c r="H17" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565529</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565529</v>
       </c>
       <c r="T17" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565529</v>
       </c>
       <c r="U17" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565529</v>
       </c>
       <c r="V17" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565529</v>
       </c>
       <c r="W17" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565529</v>
       </c>
       <c r="X17" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565529</v>
       </c>
       <c r="Y17" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565529</v>
       </c>
     </row>
     <row r="18">
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565529</v>
       </c>
       <c r="C19" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565529</v>
       </c>
       <c r="D19" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565529</v>
       </c>
       <c r="E19" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565529</v>
       </c>
       <c r="F19" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565529</v>
       </c>
       <c r="G19" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565529</v>
       </c>
       <c r="H19" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565529</v>
       </c>
       <c r="I19" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565529</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>59.94537276565529</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28752,43 +28752,43 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>44.17299576657621</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565529</v>
       </c>
       <c r="P19" t="n">
-        <v>59.94537276565516</v>
+        <v>44.17299576657393</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565529</v>
       </c>
       <c r="S19" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565529</v>
       </c>
       <c r="T19" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565529</v>
       </c>
       <c r="U19" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565529</v>
       </c>
       <c r="V19" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565529</v>
       </c>
       <c r="W19" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565529</v>
       </c>
       <c r="X19" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565529</v>
       </c>
       <c r="Y19" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565529</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="C20" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="D20" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="E20" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="F20" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="G20" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="H20" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="T20" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="U20" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="V20" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="W20" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="X20" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="Y20" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
     </row>
     <row r="21">
@@ -28956,31 +28956,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="C22" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="D22" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="E22" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="F22" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="G22" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="H22" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="I22" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="J22" t="n">
-        <v>44.17299576657625</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28989,43 +28989,43 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="N22" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>44.17299576657507</v>
       </c>
       <c r="P22" t="n">
-        <v>59.94537276565516</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="S22" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="T22" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="U22" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="V22" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="W22" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="X22" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="Y22" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="C23" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="D23" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="E23" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="F23" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="G23" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="H23" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="T23" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="U23" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="V23" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="W23" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="X23" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="Y23" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="C25" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="D25" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="E25" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="F25" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="G25" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="H25" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="I25" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29226,43 +29226,43 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>44.1729957665753</v>
       </c>
       <c r="N25" t="n">
-        <v>44.17299576657598</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>59.94537276565516</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="R25" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="S25" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="T25" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="U25" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="V25" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="W25" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="X25" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
       <c r="Y25" t="n">
-        <v>59.94537276565516</v>
+        <v>59.94537276565521</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859263</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859125</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859263</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859263</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859244</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859119</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859263</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859352</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.347738715678275</v>
+        <v>4.347738715678272</v>
       </c>
       <c r="H11" t="n">
-        <v>44.52627912194014</v>
+        <v>44.52627912194011</v>
       </c>
       <c r="I11" t="n">
-        <v>167.6161968361868</v>
+        <v>167.6161968361867</v>
       </c>
       <c r="J11" t="n">
-        <v>369.0088888197993</v>
+        <v>369.008888819799</v>
       </c>
       <c r="K11" t="n">
-        <v>553.0486686544607</v>
+        <v>553.0486686544604</v>
       </c>
       <c r="L11" t="n">
-        <v>686.1057773743998</v>
+        <v>686.1057773743994</v>
       </c>
       <c r="M11" t="n">
-        <v>763.4248757593433</v>
+        <v>763.4248757593429</v>
       </c>
       <c r="N11" t="n">
-        <v>775.7778883852643</v>
+        <v>775.7778883852639</v>
       </c>
       <c r="O11" t="n">
-        <v>732.5450615312384</v>
+        <v>732.5450615312379</v>
       </c>
       <c r="P11" t="n">
-        <v>625.2102619879309</v>
+        <v>625.2102619879305</v>
       </c>
       <c r="Q11" t="n">
-        <v>469.5068692327026</v>
+        <v>469.5068692327023</v>
       </c>
       <c r="R11" t="n">
-        <v>273.1086420987256</v>
+        <v>273.1086420987255</v>
       </c>
       <c r="S11" t="n">
-        <v>99.07409598351877</v>
+        <v>99.07409598351872</v>
       </c>
       <c r="T11" t="n">
-        <v>19.03222622788165</v>
+        <v>19.03222622788164</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3478190972542619</v>
+        <v>0.3478190972542617</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.326245294902769</v>
+        <v>2.326245294902768</v>
       </c>
       <c r="H12" t="n">
-        <v>22.46663219024517</v>
+        <v>22.46663219024515</v>
       </c>
       <c r="I12" t="n">
-        <v>80.09221739029272</v>
+        <v>80.09221739029267</v>
       </c>
       <c r="J12" t="n">
-        <v>219.7791662171077</v>
+        <v>219.7791662171076</v>
       </c>
       <c r="K12" t="n">
-        <v>375.6376009755932</v>
+        <v>375.637600975593</v>
       </c>
       <c r="L12" t="n">
-        <v>505.0911110708842</v>
+        <v>505.0911110708839</v>
       </c>
       <c r="M12" t="n">
-        <v>589.4175030111095</v>
+        <v>589.417503011109</v>
       </c>
       <c r="N12" t="n">
-        <v>605.0176304492952</v>
+        <v>605.0176304492949</v>
       </c>
       <c r="O12" t="n">
-        <v>553.4729320727654</v>
+        <v>553.472932072765</v>
       </c>
       <c r="P12" t="n">
-        <v>444.2108230240209</v>
+        <v>444.2108230240207</v>
       </c>
       <c r="Q12" t="n">
-        <v>296.9431713282904</v>
+        <v>296.9431713282901</v>
       </c>
       <c r="R12" t="n">
-        <v>144.4312648887878</v>
+        <v>144.4312648887877</v>
       </c>
       <c r="S12" t="n">
-        <v>43.20898606979483</v>
+        <v>43.2089860697948</v>
       </c>
       <c r="T12" t="n">
-        <v>9.376400991296684</v>
+        <v>9.376400991296679</v>
       </c>
       <c r="U12" t="n">
         <v>0.1530424536120243</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.950245911602408</v>
+        <v>1.950245911602406</v>
       </c>
       <c r="H13" t="n">
-        <v>17.33945910497415</v>
+        <v>17.33945910497414</v>
       </c>
       <c r="I13" t="n">
-        <v>58.6492134143706</v>
+        <v>58.64921341437056</v>
       </c>
       <c r="J13" t="n">
-        <v>137.8823859502902</v>
+        <v>137.8823859502901</v>
       </c>
       <c r="K13" t="n">
-        <v>226.5831159116251</v>
+        <v>226.583115911625</v>
       </c>
       <c r="L13" t="n">
-        <v>289.9483785304162</v>
+        <v>289.948378530416</v>
       </c>
       <c r="M13" t="n">
-        <v>305.709911397821</v>
+        <v>305.7099113978208</v>
       </c>
       <c r="N13" t="n">
-        <v>298.4408130000305</v>
+        <v>298.4408130000302</v>
       </c>
       <c r="O13" t="n">
-        <v>275.6583948508568</v>
+        <v>275.6583948508566</v>
       </c>
       <c r="P13" t="n">
-        <v>235.8733782541674</v>
+        <v>235.8733782541673</v>
       </c>
       <c r="Q13" t="n">
-        <v>163.3065008342707</v>
+        <v>163.3065008342706</v>
       </c>
       <c r="R13" t="n">
-        <v>87.69014798895914</v>
+        <v>87.69014798895908</v>
       </c>
       <c r="S13" t="n">
-        <v>33.98746738674377</v>
+        <v>33.98746738674375</v>
       </c>
       <c r="T13" t="n">
-        <v>8.332868895028467</v>
+        <v>8.332868895028462</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1063770497237678</v>
+        <v>0.1063770497237677</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32707,40 +32707,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32859,43 +32859,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34366,40 +34366,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>187.962984293113</v>
+        <v>187.9629842931128</v>
       </c>
       <c r="K11" t="n">
-        <v>332.9588176094801</v>
+        <v>332.9588176094798</v>
       </c>
       <c r="L11" t="n">
-        <v>450.3393624044126</v>
+        <v>450.3393624044122</v>
       </c>
       <c r="M11" t="n">
-        <v>533.0786425320706</v>
+        <v>533.0786425320701</v>
       </c>
       <c r="N11" t="n">
-        <v>546.3648247886733</v>
+        <v>546.3648247886729</v>
       </c>
       <c r="O11" t="n">
-        <v>502.4468501095516</v>
+        <v>502.4468501095512</v>
       </c>
       <c r="P11" t="n">
-        <v>393.9772662326614</v>
+        <v>393.977266232661</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.2011793582531</v>
+        <v>247.2011793582528</v>
       </c>
       <c r="R11" t="n">
-        <v>57.5231042845935</v>
+        <v>57.52310428459333</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>92.94153955044101</v>
+        <v>92.94153955044087</v>
       </c>
       <c r="K12" t="n">
-        <v>237.7961620012342</v>
+        <v>237.796162001234</v>
       </c>
       <c r="L12" t="n">
-        <v>366.53673129101</v>
+        <v>366.5367312910097</v>
       </c>
       <c r="M12" t="n">
-        <v>447.2834690890912</v>
+        <v>447.2834690890907</v>
       </c>
       <c r="N12" t="n">
-        <v>473.6759183659619</v>
+        <v>473.6759183659616</v>
       </c>
       <c r="O12" t="n">
-        <v>410.876687628321</v>
+        <v>410.8766876283206</v>
       </c>
       <c r="P12" t="n">
-        <v>310.2364156096907</v>
+        <v>310.2364156096904</v>
       </c>
       <c r="Q12" t="n">
-        <v>156.9613972422688</v>
+        <v>156.9613972422686</v>
       </c>
       <c r="R12" t="n">
-        <v>18.22452697562418</v>
+        <v>18.22452697562693</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.49344198068005</v>
+        <v>57.49344198068</v>
       </c>
       <c r="K13" t="n">
-        <v>217.2838602328049</v>
+        <v>217.2838602328048</v>
       </c>
       <c r="L13" t="n">
-        <v>330.508639937795</v>
+        <v>330.5086399377948</v>
       </c>
       <c r="M13" t="n">
-        <v>358.2640245067242</v>
+        <v>358.2640245067241</v>
       </c>
       <c r="N13" t="n">
-        <v>355.5432215263217</v>
+        <v>355.5432215263215</v>
       </c>
       <c r="O13" t="n">
-        <v>313.2137589119591</v>
+        <v>313.213758911959</v>
       </c>
       <c r="P13" t="n">
-        <v>246.1221736661236</v>
+        <v>246.1221736661234</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.11469372963894</v>
+        <v>90.11469372963887</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>58.54865276012885</v>
+        <v>58.54865276012889</v>
       </c>
       <c r="K16" t="n">
         <v>219.0178956913822</v>
@@ -35817,13 +35817,13 @@
         <v>357.8271823146027</v>
       </c>
       <c r="O16" t="n">
-        <v>315.3233663697024</v>
+        <v>315.3233663697025</v>
       </c>
       <c r="P16" t="n">
         <v>247.9273072921731</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.36447468495628</v>
+        <v>91.36447468495632</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>716.6372310243213</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -35899,7 +35899,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>659.8091028513629</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
         <v>463.1092954636242</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>105.5237893787215</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
@@ -36048,16 +36048,16 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>391.80637516006</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>362.2985029882949</v>
+        <v>362.2985029882951</v>
       </c>
       <c r="P19" t="n">
-        <v>294.9024439107656</v>
+        <v>279.1300669116844</v>
       </c>
       <c r="Q19" t="n">
         <v>78.39423853789366</v>
@@ -36124,7 +36124,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>607.1535135127439</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
@@ -36136,10 +36136,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>659.8091028513629</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>89.75141237964247</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
@@ -36285,16 +36285,16 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>407.5787521591391</v>
       </c>
       <c r="N22" t="n">
-        <v>404.8023189331952</v>
+        <v>404.8023189331953</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>346.5261259892148</v>
       </c>
       <c r="P22" t="n">
-        <v>294.9024439107656</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
         <v>78.39423853789366</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302269</v>
+        <v>967.5462875179124</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>769.1001175202088</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636243</v>
+        <v>361.2476602809119</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934839</v>
+        <v>391.8063751600591</v>
       </c>
       <c r="N25" t="n">
-        <v>389.0299419341162</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>362.298502988295</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>294.9024439107657</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789368</v>
+        <v>138.3396113035489</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36604,19 +36604,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>632.5715920432249</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>685.7637716667626</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
@@ -36844,13 +36844,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>632.5715920432249</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>416.1845670468734</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37072,7 +37072,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>477.3399348174792</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37081,16 +37081,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>632.5715920432249</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37309,22 +37309,22 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>779.8921912661672</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>632.571592043224</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165885</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M37" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861313</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P37" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37555,10 +37555,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>632.571592043224</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>464.2791042831128</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636242</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165885</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M40" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861325</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637016</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37783,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>858.9893307218362</v>
       </c>
       <c r="O41" t="n">
-        <v>632.5715920432249</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165975</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>377.2134278768871</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P44" t="n">
-        <v>407.7323611338762</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
